--- a/data_in/temporal/Activity_drivers.xlsx
+++ b/data_in/temporal/Activity_drivers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" tabRatio="808"/>
+    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" tabRatio="808" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="drivers_industry_emp" sheetId="15" r:id="rId1"/>
@@ -787,7 +787,7 @@
   </sheetPr>
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
@@ -19131,11 +19131,11 @@
   </sheetPr>
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AV6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH2" sqref="BH2"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19537,13 +19537,13 @@
         <v>73535084.801312208</v>
       </c>
       <c r="L3" s="14">
-        <v>46762725.277367339</v>
+        <v>47898023.713390075</v>
       </c>
       <c r="M3" s="14">
-        <v>98843997.542914972</v>
+        <v>101243717.30165665</v>
       </c>
       <c r="N3" s="14">
-        <v>170806517.13718936</v>
+        <v>174953332.16172335</v>
       </c>
       <c r="O3" s="14">
         <v>35100782.570857525</v>
@@ -19716,13 +19716,13 @@
         <v>75358640.534865737</v>
       </c>
       <c r="L4" s="14">
-        <v>47865728.179794475</v>
+        <v>49011764.200447783</v>
       </c>
       <c r="M4" s="14">
-        <v>100155054.85304378</v>
+        <v>102553039.90157267</v>
       </c>
       <c r="N4" s="14">
-        <v>174699872.03738812</v>
+        <v>178882663.22791022</v>
       </c>
       <c r="O4" s="14">
         <v>36265065.201097913</v>
@@ -19895,13 +19895,13 @@
         <v>77441568.880353317</v>
       </c>
       <c r="L5" s="14">
-        <v>49179650.310477085</v>
+        <v>50340669.319839202</v>
       </c>
       <c r="M5" s="14">
-        <v>101858666.45210552</v>
+        <v>104263316.49074103</v>
       </c>
       <c r="N5" s="14">
-        <v>178043449.48195985</v>
+        <v>182246647.91944286</v>
       </c>
       <c r="O5" s="14">
         <v>37459223.748321265</v>
@@ -20074,13 +20074,13 @@
         <v>79818634.642518893</v>
       </c>
       <c r="L6" s="19">
-        <v>50144374.817656659</v>
+        <v>51311375.175877109</v>
       </c>
       <c r="M6" s="19">
-        <v>104165952.17436765</v>
+        <v>106590186.2772736</v>
       </c>
       <c r="N6" s="19">
-        <v>180875501.80696985</v>
+        <v>185084982.45499086</v>
       </c>
       <c r="O6" s="19">
         <v>38743288.716540419</v>
@@ -20254,13 +20254,13 @@
         <v>82110936.692681193</v>
       </c>
       <c r="L7" s="19">
-        <v>50869789.087423593</v>
+        <v>52036640.912053317</v>
       </c>
       <c r="M7" s="19">
-        <v>105983152.67742632</v>
+        <v>108414195.48889023</v>
       </c>
       <c r="N7" s="19">
-        <v>182648297.23808256</v>
+        <v>186837886.043562</v>
       </c>
       <c r="O7" s="19">
         <v>40266653.507344171</v>
@@ -20434,13 +20434,13 @@
         <v>82254279.623275399</v>
       </c>
       <c r="L8" s="19">
-        <v>51029579.066053785</v>
+        <v>52183017.287997983</v>
       </c>
       <c r="M8" s="19">
-        <v>106528907.33685562</v>
+        <v>108936814.9800919</v>
       </c>
       <c r="N8" s="19">
-        <v>183222024.16001564</v>
+        <v>187363451.34080014</v>
       </c>
       <c r="O8" s="19">
         <v>40430285.988840893</v>
@@ -20614,13 +20614,13 @@
         <v>82397872.790885255</v>
       </c>
       <c r="L9" s="19">
-        <v>51189870.970045358</v>
+        <v>52329805.413107462</v>
       </c>
       <c r="M9" s="19">
-        <v>107077472.33114254</v>
+        <v>109461953.8012702</v>
       </c>
       <c r="N9" s="19">
-        <v>183797553.24811146</v>
+        <v>187890495.0260008</v>
       </c>
       <c r="O9" s="19">
         <v>40594583.427235402</v>
@@ -20794,13 +20794,13 @@
         <v>82541716.632355228</v>
       </c>
       <c r="L10" s="19">
-        <v>51350666.376024514</v>
+        <v>52477006.445610806</v>
       </c>
       <c r="M10" s="19">
-        <v>107628862.13195835</v>
+        <v>109989624.09706117</v>
       </c>
       <c r="N10" s="19">
-        <v>184374890.16325623</v>
+        <v>188419021.25779265</v>
       </c>
       <c r="O10" s="19">
         <v>40759548.524727613</v>
@@ -20974,13 +20974,13 @@
         <v>82685811.585292414</v>
       </c>
       <c r="L11" s="19">
-        <v>51511966.865569875</v>
+        <v>52624621.546995163</v>
       </c>
       <c r="M11" s="19">
-        <v>108183091.28549533</v>
+        <v>110519838.07064515</v>
       </c>
       <c r="N11" s="19">
-        <v>184954040.58411798</v>
+        <v>188949034.20650262</v>
       </c>
       <c r="O11" s="19">
         <v>40925183.994498439</v>
@@ -21154,13 +21154,13 @@
         <v>82830158.088067755</v>
       </c>
       <c r="L12" s="19">
-        <v>51673774.025228098</v>
+        <v>52772651.882014826</v>
       </c>
       <c r="M12" s="19">
-        <v>108740174.41285074</v>
+        <v>111052607.98402885</v>
       </c>
       <c r="N12" s="19">
-        <v>185535010.2072024</v>
+        <v>189480538.05418831</v>
       </c>
       <c r="O12" s="19">
         <v>41091492.560754351</v>
@@ -21334,13 +21334,13 @@
         <v>82974756.579817548</v>
       </c>
       <c r="L13" s="19">
-        <v>51836089.446529381</v>
+        <v>52921098.618700489</v>
       </c>
       <c r="M13" s="19">
-        <v>109300126.21041235</v>
+        <v>111587946.15832892</v>
       </c>
       <c r="N13" s="19">
-        <v>186117804.74690872</v>
+        <v>190013536.99467126</v>
       </c>
       <c r="O13" s="19">
         <v>41258476.958772279</v>
@@ -21514,13 +21514,13 @@
         <v>83119607.500444695</v>
       </c>
       <c r="L14" s="19">
-        <v>51998914.7260032</v>
+        <v>53069962.928368501</v>
       </c>
       <c r="M14" s="19">
-        <v>109862961.45024619</v>
+        <v>112125864.97405709</v>
       </c>
       <c r="N14" s="19">
-        <v>186702429.93558601</v>
+        <v>190548035.23357016</v>
       </c>
       <c r="O14" s="19">
         <v>41426139.934944563</v>
@@ -21694,13 +21694,13 @@
         <v>83264711.290620014</v>
       </c>
       <c r="L15" s="19">
-        <v>52162251.465193942</v>
+        <v>53219245.985630043</v>
       </c>
       <c r="M15" s="19">
-        <v>110428694.98048626</v>
+        <v>112666376.87140633</v>
       </c>
       <c r="N15" s="19">
-        <v>187288891.52358946</v>
+        <v>191084036.98833379</v>
       </c>
       <c r="O15" s="19">
         <v>41594484.246824101</v>
@@ -21874,13 +21874,13 @@
         <v>83410068.39178364</v>
       </c>
       <c r="L16" s="19">
-        <v>52326101.270676754</v>
+        <v>53368948.968400396</v>
       </c>
       <c r="M16" s="19">
-        <v>110997341.72572632</v>
+        <v>113209494.35053854</v>
       </c>
       <c r="N16" s="19">
-        <v>187877195.27933717</v>
+        <v>191621546.4882744</v>
       </c>
       <c r="O16" s="19">
         <v>41763512.663169719</v>
@@ -22054,13 +22054,13 @@
         <v>83555679.246146306</v>
       </c>
       <c r="L17" s="19">
-        <v>52490465.754073255</v>
+        <v>53519073.057908282</v>
       </c>
       <c r="M17" s="19">
-        <v>111568916.6874135</v>
+        <v>113755229.97187372</v>
       </c>
       <c r="N17" s="19">
-        <v>188467346.98936677</v>
+        <v>192160567.97460121</v>
       </c>
       <c r="O17" s="19">
         <v>41933227.963991724</v>
@@ -22234,13 +22234,13 @@
         <v>83701544.296690777</v>
       </c>
       <c r="L18" s="19">
-        <v>52655346.532067411</v>
+        <v>53669619.438705109</v>
       </c>
       <c r="M18" s="19">
-        <v>112143434.94424401</v>
+        <v>114303596.35638025</v>
       </c>
       <c r="N18" s="19">
-        <v>189059352.45839217</v>
+        <v>192701105.7004534</v>
       </c>
       <c r="O18" s="19">
         <v>42103632.940597594</v>
@@ -22414,13 +22414,13 @@
         <v>83847663.987173125</v>
       </c>
       <c r="L19" s="19">
-        <v>52820745.226421431</v>
+        <v>53820589.298674464</v>
       </c>
       <c r="M19" s="19">
-        <v>112720911.6525611</v>
+        <v>114854606.18586722</v>
       </c>
       <c r="N19" s="19">
-        <v>189653217.50936073</v>
+        <v>193243163.93093446</v>
       </c>
       <c r="O19" s="19">
         <v>42274730.395637929</v>
@@ -22594,13 +22594,13 @@
         <v>83994038.762124047</v>
       </c>
       <c r="L20" s="19">
-        <v>52986663.463991791</v>
+        <v>53971983.829041272</v>
       </c>
       <c r="M20" s="19">
-        <v>113301362.04675481</v>
+        <v>115408272.2032771</v>
       </c>
       <c r="N20" s="19">
-        <v>190248947.98351088</v>
+        <v>193786746.94314501</v>
       </c>
       <c r="O20" s="19">
         <v>42446523.143152483</v>
@@ -22774,13 +22774,13 @@
         <v>84140669.066850305</v>
       </c>
       <c r="L21" s="19">
-        <v>53153102.87674512</v>
+        <v>54123804.224381365</v>
       </c>
       <c r="M21" s="19">
-        <v>113884801.43966386</v>
+        <v>115964607.21298088</v>
       </c>
       <c r="N21" s="19">
-        <v>190846549.7404291</v>
+        <v>194331859.02621707</v>
       </c>
       <c r="O21" s="19">
         <v>42619014.008616515</v>
@@ -22954,13 +22954,13 @@
         <v>84287555.347436041</v>
       </c>
       <c r="L22" s="19">
-        <v>53320065.10177435</v>
+        <v>54276051.682630897</v>
       </c>
       <c r="M22" s="19">
-        <v>114471245.22297961</v>
+        <v>116523624.08107418</v>
       </c>
       <c r="N22" s="19">
-        <v>191446028.65810779</v>
+        <v>194878504.48134789</v>
       </c>
       <c r="O22" s="19">
         <v>42792205.828987226</v>
@@ -23134,13 +23134,13 @@
         <v>84434698.050744161</v>
       </c>
       <c r="L23" s="19">
-        <v>53487551.781314746</v>
+        <v>54428727.405095704</v>
       </c>
       <c r="M23" s="19">
-        <v>115060708.86765206</v>
+        <v>117085335.73567452</v>
       </c>
       <c r="N23" s="19">
-        <v>192047390.63300291</v>
+        <v>195426687.62183359</v>
       </c>
       <c r="O23" s="19">
         <v>42966101.452750422</v>
@@ -23314,13 +23314,13 @@
         <v>84582097.624417618</v>
       </c>
       <c r="L24" s="19">
-        <v>53655564.562760122</v>
+        <v>54581832.596460819</v>
       </c>
       <c r="M24" s="19">
-        <v>115653207.92429823</v>
+        <v>117649755.16722052</v>
       </c>
       <c r="N24" s="19">
-        <v>192650641.5800924</v>
+        <v>195976412.77310342</v>
       </c>
       <c r="O24" s="19">
         <v>43140703.739967339</v>
@@ -23494,13 +23494,13 @@
         <v>84729754.51688087</v>
       </c>
       <c r="L25" s="19">
-        <v>53824105.098678991</v>
+        <v>54735368.464800045</v>
       </c>
       <c r="M25" s="19">
-        <v>116248758.02361204</v>
+        <v>118216895.42877232</v>
       </c>
       <c r="N25" s="19">
-        <v>193255787.43293393</v>
+        <v>196527684.27275395</v>
       </c>
       <c r="O25" s="19">
         <v>43316015.562321745</v>
@@ -23674,13 +23674,13 @@
         <v>84877669.177341193</v>
       </c>
       <c r="L26" s="19">
-        <v>53993175.04683087</v>
+        <v>54889336.221585378</v>
       </c>
       <c r="M26" s="19">
-        <v>116847374.87677698</v>
+        <v>118786769.63631333</v>
       </c>
       <c r="N26" s="19">
-        <v>193862834.14372331</v>
+        <v>197080506.47058296</v>
       </c>
       <c r="O26" s="19">
         <v>43492039.803167105</v>
@@ -23854,13 +23854,13 @@
         <v>85025842.055790052</v>
       </c>
       <c r="L27" s="19">
-        <v>54162776.070182502</v>
+        <v>55043737.081696682</v>
       </c>
       <c r="M27" s="19">
-        <v>117449074.27588029</v>
+        <v>119359390.96905373</v>
       </c>
       <c r="N27" s="19">
-        <v>194471787.68335322</v>
+        <v>197634883.72862431</v>
       </c>
       <c r="O27" s="19">
         <v>43668779.357574046</v>
@@ -24034,13 +24034,13 @@
         <v>85174273.603004441</v>
       </c>
       <c r="L28" s="19">
-        <v>54332909.836924344</v>
+        <v>55198572.263431177</v>
       </c>
       <c r="M28" s="19">
-        <v>118053872.09432994</v>
+        <v>119934772.66973504</v>
       </c>
       <c r="N28" s="19">
-        <v>195082654.0414719</v>
+        <v>198190820.42118174</v>
       </c>
       <c r="O28" s="19">
         <v>43846237.132377952</v>
@@ -24214,13 +24214,13 @@
         <v>85322964.270548299</v>
       </c>
       <c r="L29" s="19">
-        <v>54503578.020486854</v>
+        <v>55353842.98851306</v>
       </c>
       <c r="M29" s="19">
-        <v>118661784.28727299</v>
+        <v>120512928.04493651</v>
       </c>
       <c r="N29" s="19">
-        <v>195695439.22654191</v>
+        <v>198748320.93486363</v>
       </c>
       <c r="O29" s="19">
         <v>44024416.046226747</v>
@@ -24394,13 +24394,13 @@
         <v>85471914.510773912</v>
       </c>
       <c r="L30" s="19">
-        <v>54674782.299557008</v>
+        <v>55509550.482103258</v>
       </c>
       <c r="M30" s="19">
-        <v>119272826.89201681</v>
+        <v>121093870.46538298</v>
       </c>
       <c r="N30" s="19">
-        <v>196310149.26589939</v>
+        <v>199307389.66861799</v>
       </c>
       <c r="O30" s="19">
         <v>44203319.029628992</v>
@@ -24574,13 +24574,13 @@
         <v>85621124.776823208</v>
       </c>
       <c r="L31" s="19">
-        <v>54846524.358094782</v>
+        <v>55665695.972808935</v>
       </c>
       <c r="M31" s="19">
-        <v>119887016.02845196</v>
+        <v>121677613.36625381</v>
       </c>
       <c r="N31" s="19">
-        <v>196926790.2058132</v>
+        <v>199868031.03376666</v>
       </c>
       <c r="O31" s="19">
         <v>44382949.025001965</v>
@@ -24754,13 +24754,13 @@
         <v>85770595.522629172</v>
       </c>
       <c r="L32" s="19">
-        <v>55018805.885349758</v>
+        <v>55822280.692693301</v>
       </c>
       <c r="M32" s="19">
-        <v>120504367.89947757</v>
+        <v>122264170.2474938</v>
       </c>
       <c r="N32" s="19">
-        <v>197545368.11154464</v>
+        <v>200430249.45404023</v>
       </c>
       <c r="O32" s="19">
         <v>44563308.986720145</v>
@@ -24934,13 +24934,13 @@
         <v>85920327.202917263</v>
       </c>
       <c r="L33" s="19">
-        <v>55191628.575877741</v>
+        <v>55979305.877285294</v>
       </c>
       <c r="M33" s="19">
-        <v>121124898.7914288</v>
+        <v>122853554.67412539</v>
       </c>
       <c r="N33" s="19">
-        <v>198165889.06740692</v>
+        <v>200994049.36561319</v>
       </c>
       <c r="O33" s="19">
         <v>44744401.881163746</v>
@@ -25114,13 +25114,13 @@
         <v>86070320.273206726</v>
       </c>
       <c r="L34" s="19">
-        <v>55364994.129557326</v>
+        <v>56136772.765589304</v>
       </c>
       <c r="M34" s="19">
-        <v>121748625.07450631</v>
+        <v>123445780.27656218</v>
       </c>
       <c r="N34" s="19">
-        <v>198788359.17682484</v>
+        <v>201559435.21713853</v>
       </c>
       <c r="O34" s="19">
         <v>44926230.686767519</v>
@@ -25294,13 +25294,13 @@
         <v>86220575.189812049</v>
       </c>
       <c r="L35" s="19">
-        <v>55538904.251606762</v>
+        <v>56294682.600095049</v>
       </c>
       <c r="M35" s="19">
-        <v>122375563.20320831</v>
+        <v>124040860.7509245</v>
       </c>
       <c r="N35" s="19">
-        <v>199412784.56239519</v>
+        <v>202126411.4697834</v>
       </c>
       <c r="O35" s="19">
         <v>45108798.394069776</v>
@@ -25474,13 +25474,13 @@
         <v>86371092.409844294</v>
       </c>
       <c r="L36" s="19">
-        <v>55713360.652600631</v>
+        <v>56453036.626787201</v>
       </c>
       <c r="M36" s="19">
-        <v>123005729.71676461</v>
+        <v>124638809.8593557</v>
       </c>
       <c r="N36" s="19">
-        <v>200039171.36594674</v>
+        <v>202694982.59726357</v>
       </c>
       <c r="O36" s="19">
         <v>45292108.005761519</v>
@@ -25654,13 +25654,13 @@
         <v>86521872.391212523</v>
       </c>
       <c r="L37" s="19">
-        <v>55888365.048486672</v>
+        <v>56611836.095155388</v>
       </c>
       <c r="M37" s="19">
-        <v>123639141.23957282</v>
+        <v>125239641.43034083</v>
       </c>
       <c r="N37" s="19">
-        <v>200667525.74860069</v>
+        <v>203265153.08587942</v>
       </c>
       <c r="O37" s="19">
         <v>45476162.536735862</v>
@@ -25834,13 +25834,13 @@
         <v>86672915.592625156</v>
       </c>
       <c r="L38" s="19">
-        <v>56063919.160602748</v>
+        <v>56771082.258203983</v>
       </c>
       <c r="M38" s="19">
-        <v>124275814.48163716</v>
+        <v>125843369.35902627</v>
       </c>
       <c r="N38" s="19">
-        <v>201297853.89083144</v>
+        <v>203836927.43455106</v>
       </c>
       <c r="O38" s="19">
         <v>45660965.014137596</v>

--- a/data_in/temporal/Activity_drivers.xlsx
+++ b/data_in/temporal/Activity_drivers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" tabRatio="808" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" tabRatio="808" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="drivers_industry_emp" sheetId="15" r:id="rId1"/>
@@ -787,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6580,10 +6580,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AJ91"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AD8"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6592,7 +6592,7 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="35.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
@@ -6603,12 +6603,10 @@
     <col min="15" max="15" width="28.28515625" customWidth="1"/>
     <col min="16" max="25" width="35.28515625" customWidth="1"/>
     <col min="26" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="31" width="35.28515625" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.7109375" customWidth="1"/>
+    <col min="27" max="30" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
         <v>3</v>
@@ -6703,11 +6701,8 @@
       <c r="AH1" s="16"/>
       <c r="AI1" s="16"/>
       <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>88</v>
       </c>
@@ -6804,11 +6799,8 @@
       <c r="AH2" s="16"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2015</v>
       </c>
@@ -6903,11 +6895,8 @@
       <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2016</v>
       </c>
@@ -7002,11 +6991,8 @@
       <c r="AH4" s="16"/>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>2017</v>
       </c>
@@ -7101,11 +7087,8 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2018</v>
       </c>
@@ -7200,11 +7183,8 @@
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2019</v>
       </c>
@@ -7299,11 +7279,8 @@
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>2020</v>
       </c>
@@ -7398,11 +7375,8 @@
       <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>2021</v>
       </c>
@@ -7497,11 +7471,8 @@
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2022</v>
       </c>
@@ -7596,11 +7567,8 @@
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2023</v>
       </c>
@@ -7695,11 +7663,8 @@
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>2024</v>
       </c>
@@ -7794,11 +7759,8 @@
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>2025</v>
       </c>
@@ -7893,11 +7855,8 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>2026</v>
       </c>
@@ -7992,11 +7951,8 @@
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2027</v>
       </c>
@@ -8091,11 +8047,8 @@
       <c r="AH15" s="16"/>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>2028</v>
       </c>
@@ -8190,11 +8143,8 @@
       <c r="AH16" s="16"/>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>2029</v>
       </c>
@@ -8289,11 +8239,8 @@
       <c r="AH17" s="16"/>
       <c r="AI17" s="16"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>2030</v>
       </c>
@@ -8388,11 +8335,8 @@
       <c r="AH18" s="16"/>
       <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>2031</v>
       </c>
@@ -8487,11 +8431,8 @@
       <c r="AH19" s="16"/>
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>2032</v>
       </c>
@@ -8586,11 +8527,8 @@
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>2033</v>
       </c>
@@ -8685,11 +8623,8 @@
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>2034</v>
       </c>
@@ -8784,11 +8719,8 @@
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="16"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>2035</v>
       </c>
@@ -8883,11 +8815,8 @@
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>2036</v>
       </c>
@@ -8982,11 +8911,8 @@
       <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>2037</v>
       </c>
@@ -9081,11 +9007,8 @@
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
       <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>2038</v>
       </c>
@@ -9180,11 +9103,8 @@
       <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>2039</v>
       </c>
@@ -9279,11 +9199,8 @@
       <c r="AH27" s="16"/>
       <c r="AI27" s="16"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>2040</v>
       </c>
@@ -9378,11 +9295,8 @@
       <c r="AH28" s="16"/>
       <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>2041</v>
       </c>
@@ -9477,11 +9391,8 @@
       <c r="AH29" s="16"/>
       <c r="AI29" s="16"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>2042</v>
       </c>
@@ -9576,11 +9487,8 @@
       <c r="AH30" s="16"/>
       <c r="AI30" s="16"/>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>2043</v>
       </c>
@@ -9675,11 +9583,8 @@
       <c r="AH31" s="16"/>
       <c r="AI31" s="16"/>
       <c r="AJ31" s="16"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>2044</v>
       </c>
@@ -9774,11 +9679,8 @@
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>2045</v>
       </c>
@@ -9873,11 +9775,8 @@
       <c r="AH33" s="16"/>
       <c r="AI33" s="16"/>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>2046</v>
       </c>
@@ -9972,11 +9871,8 @@
       <c r="AH34" s="16"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>2047</v>
       </c>
@@ -10071,11 +9967,8 @@
       <c r="AH35" s="16"/>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>2048</v>
       </c>
@@ -10170,11 +10063,8 @@
       <c r="AH36" s="16"/>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="16"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>2049</v>
       </c>
@@ -10269,11 +10159,8 @@
       <c r="AH37" s="16"/>
       <c r="AI37" s="16"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>2050</v>
       </c>
@@ -10368,11 +10255,8 @@
       <c r="AH38" s="16"/>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -10409,11 +10293,8 @@
       <c r="AH39" s="16"/>
       <c r="AI39" s="16"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="16"/>
-      <c r="AL39" s="16"/>
-      <c r="AM39" s="16"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -10450,11 +10331,8 @@
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="16"/>
-      <c r="AM40" s="16"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -10491,11 +10369,8 @@
       <c r="AH41" s="16"/>
       <c r="AI41" s="16"/>
       <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="16"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -10532,11 +10407,8 @@
       <c r="AH42" s="16"/>
       <c r="AI42" s="16"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -10573,11 +10445,8 @@
       <c r="AH43" s="16"/>
       <c r="AI43" s="16"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="16"/>
-      <c r="AL43" s="16"/>
-      <c r="AM43" s="16"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -10614,11 +10483,8 @@
       <c r="AH44" s="16"/>
       <c r="AI44" s="16"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="16"/>
-      <c r="AL44" s="16"/>
-      <c r="AM44" s="16"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -10655,11 +10521,8 @@
       <c r="AH45" s="16"/>
       <c r="AI45" s="16"/>
       <c r="AJ45" s="16"/>
-      <c r="AK45" s="16"/>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="16"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -10696,11 +10559,8 @@
       <c r="AH46" s="16"/>
       <c r="AI46" s="16"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -10737,11 +10597,8 @@
       <c r="AH47" s="16"/>
       <c r="AI47" s="16"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="16"/>
-      <c r="AL47" s="16"/>
-      <c r="AM47" s="16"/>
-    </row>
-    <row r="48" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -10778,11 +10635,8 @@
       <c r="AH48" s="16"/>
       <c r="AI48" s="16"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="16"/>
-      <c r="AL48" s="16"/>
-      <c r="AM48" s="16"/>
-    </row>
-    <row r="49" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -10819,11 +10673,8 @@
       <c r="AH49" s="16"/>
       <c r="AI49" s="16"/>
       <c r="AJ49" s="16"/>
-      <c r="AK49" s="16"/>
-      <c r="AL49" s="16"/>
-      <c r="AM49" s="16"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -10860,11 +10711,8 @@
       <c r="AH50" s="16"/>
       <c r="AI50" s="16"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="16"/>
-      <c r="AL50" s="16"/>
-      <c r="AM50" s="16"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -10900,11 +10748,8 @@
       <c r="AH51" s="16"/>
       <c r="AI51" s="16"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="16"/>
-      <c r="AL51" s="16"/>
-      <c r="AM51" s="16"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -10940,11 +10785,8 @@
       <c r="AH52" s="16"/>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="16"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="16"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -10980,11 +10822,8 @@
       <c r="AH53" s="16"/>
       <c r="AI53" s="16"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="16"/>
-      <c r="AL53" s="16"/>
-      <c r="AM53" s="16"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -11020,11 +10859,8 @@
       <c r="AH54" s="16"/>
       <c r="AI54" s="16"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="16"/>
-      <c r="AL54" s="16"/>
-      <c r="AM54" s="16"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -11060,11 +10896,8 @@
       <c r="AH55" s="16"/>
       <c r="AI55" s="16"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="16"/>
-      <c r="AL55" s="16"/>
-      <c r="AM55" s="16"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -11100,11 +10933,8 @@
       <c r="AH56" s="16"/>
       <c r="AI56" s="16"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="16"/>
-      <c r="AM56" s="16"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -11140,11 +10970,8 @@
       <c r="AH57" s="16"/>
       <c r="AI57" s="16"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="16"/>
-      <c r="AL57" s="16"/>
-      <c r="AM57" s="16"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -11180,11 +11007,8 @@
       <c r="AH58" s="16"/>
       <c r="AI58" s="16"/>
       <c r="AJ58" s="16"/>
-      <c r="AK58" s="16"/>
-      <c r="AL58" s="16"/>
-      <c r="AM58" s="16"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -11220,11 +11044,8 @@
       <c r="AH59" s="16"/>
       <c r="AI59" s="16"/>
       <c r="AJ59" s="16"/>
-      <c r="AK59" s="16"/>
-      <c r="AL59" s="16"/>
-      <c r="AM59" s="16"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -11260,11 +11081,8 @@
       <c r="AH60" s="16"/>
       <c r="AI60" s="16"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="16"/>
-      <c r="AM60" s="16"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -11300,11 +11118,8 @@
       <c r="AH61" s="16"/>
       <c r="AI61" s="16"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="16"/>
-      <c r="AL61" s="16"/>
-      <c r="AM61" s="16"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -11340,11 +11155,8 @@
       <c r="AH62" s="16"/>
       <c r="AI62" s="16"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="16"/>
-      <c r="AL62" s="16"/>
-      <c r="AM62" s="16"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -11380,11 +11192,8 @@
       <c r="AH63" s="16"/>
       <c r="AI63" s="16"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="16"/>
-      <c r="AL63" s="16"/>
-      <c r="AM63" s="16"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -11420,11 +11229,8 @@
       <c r="AH64" s="16"/>
       <c r="AI64" s="16"/>
       <c r="AJ64" s="16"/>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="16"/>
-      <c r="AM64" s="16"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -11460,11 +11266,8 @@
       <c r="AH65" s="16"/>
       <c r="AI65" s="16"/>
       <c r="AJ65" s="16"/>
-      <c r="AK65" s="16"/>
-      <c r="AL65" s="16"/>
-      <c r="AM65" s="16"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -11500,11 +11303,8 @@
       <c r="AH66" s="16"/>
       <c r="AI66" s="16"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="16"/>
-      <c r="AL66" s="16"/>
-      <c r="AM66" s="16"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -11541,11 +11341,8 @@
       <c r="AH67" s="16"/>
       <c r="AI67" s="16"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="16"/>
-      <c r="AL67" s="16"/>
-      <c r="AM67" s="16"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -11582,11 +11379,8 @@
       <c r="AH68" s="16"/>
       <c r="AI68" s="16"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="16"/>
-      <c r="AM68" s="16"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
       <c r="G69" s="9"/>
       <c r="H69" s="16"/>
@@ -11618,11 +11412,8 @@
       <c r="AH69" s="16"/>
       <c r="AI69" s="16"/>
       <c r="AJ69" s="16"/>
-      <c r="AK69" s="16"/>
-      <c r="AL69" s="16"/>
-      <c r="AM69" s="16"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="G70" s="9"/>
       <c r="H70" s="16"/>
@@ -11654,11 +11445,8 @@
       <c r="AH70" s="16"/>
       <c r="AI70" s="16"/>
       <c r="AJ70" s="16"/>
-      <c r="AK70" s="16"/>
-      <c r="AL70" s="16"/>
-      <c r="AM70" s="16"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="G71" s="9"/>
       <c r="H71" s="16"/>
@@ -11690,11 +11478,8 @@
       <c r="AH71" s="16"/>
       <c r="AI71" s="16"/>
       <c r="AJ71" s="16"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="16"/>
-      <c r="AM71" s="16"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
       <c r="G72" s="9"/>
       <c r="H72" s="16"/>
@@ -11726,11 +11511,8 @@
       <c r="AH72" s="16"/>
       <c r="AI72" s="16"/>
       <c r="AJ72" s="16"/>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="16"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
       <c r="G73" s="9"/>
       <c r="H73" s="16"/>
@@ -11762,11 +11544,8 @@
       <c r="AH73" s="16"/>
       <c r="AI73" s="16"/>
       <c r="AJ73" s="16"/>
-      <c r="AK73" s="16"/>
-      <c r="AL73" s="16"/>
-      <c r="AM73" s="16"/>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
       <c r="G74" s="9"/>
       <c r="H74" s="16"/>
@@ -11798,11 +11577,8 @@
       <c r="AH74" s="16"/>
       <c r="AI74" s="16"/>
       <c r="AJ74" s="16"/>
-      <c r="AK74" s="16"/>
-      <c r="AL74" s="16"/>
-      <c r="AM74" s="16"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="G75" s="9"/>
       <c r="H75" s="16"/>
@@ -11834,11 +11610,8 @@
       <c r="AH75" s="16"/>
       <c r="AI75" s="16"/>
       <c r="AJ75" s="16"/>
-      <c r="AK75" s="16"/>
-      <c r="AL75" s="16"/>
-      <c r="AM75" s="16"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="G76" s="9"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
@@ -11869,11 +11642,8 @@
       <c r="AH76" s="16"/>
       <c r="AI76" s="16"/>
       <c r="AJ76" s="16"/>
-      <c r="AK76" s="16"/>
-      <c r="AL76" s="16"/>
-      <c r="AM76" s="16"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="G77" s="9"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
@@ -11904,11 +11674,8 @@
       <c r="AH77" s="16"/>
       <c r="AI77" s="16"/>
       <c r="AJ77" s="16"/>
-      <c r="AK77" s="16"/>
-      <c r="AL77" s="16"/>
-      <c r="AM77" s="16"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D78" s="12"/>
       <c r="G78" s="9"/>
       <c r="H78" s="16"/>
@@ -11940,11 +11707,8 @@
       <c r="AH78" s="16"/>
       <c r="AI78" s="16"/>
       <c r="AJ78" s="16"/>
-      <c r="AK78" s="16"/>
-      <c r="AL78" s="16"/>
-      <c r="AM78" s="16"/>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="16"/>
@@ -11976,11 +11740,8 @@
       <c r="AH79" s="16"/>
       <c r="AI79" s="16"/>
       <c r="AJ79" s="16"/>
-      <c r="AK79" s="16"/>
-      <c r="AL79" s="16"/>
-      <c r="AM79" s="16"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
       <c r="D80" s="9"/>
       <c r="G80" s="9"/>
@@ -12013,11 +11774,8 @@
       <c r="AH80" s="16"/>
       <c r="AI80" s="16"/>
       <c r="AJ80" s="16"/>
-      <c r="AK80" s="16"/>
-      <c r="AL80" s="16"/>
-      <c r="AM80" s="16"/>
-    </row>
-    <row r="81" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="16"/>
@@ -12049,11 +11807,8 @@
       <c r="AH81" s="16"/>
       <c r="AI81" s="16"/>
       <c r="AJ81" s="16"/>
-      <c r="AK81" s="16"/>
-      <c r="AL81" s="16"/>
-      <c r="AM81" s="16"/>
-    </row>
-    <row r="82" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="16"/>
@@ -12085,11 +11840,8 @@
       <c r="AH82" s="16"/>
       <c r="AI82" s="16"/>
       <c r="AJ82" s="16"/>
-      <c r="AK82" s="16"/>
-      <c r="AL82" s="16"/>
-      <c r="AM82" s="16"/>
-    </row>
-    <row r="83" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="16"/>
@@ -12121,11 +11873,8 @@
       <c r="AH83" s="16"/>
       <c r="AI83" s="16"/>
       <c r="AJ83" s="16"/>
-      <c r="AK83" s="16"/>
-      <c r="AL83" s="16"/>
-      <c r="AM83" s="16"/>
-    </row>
-    <row r="84" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="16"/>
@@ -12157,11 +11906,8 @@
       <c r="AH84" s="16"/>
       <c r="AI84" s="16"/>
       <c r="AJ84" s="16"/>
-      <c r="AK84" s="16"/>
-      <c r="AL84" s="16"/>
-      <c r="AM84" s="16"/>
-    </row>
-    <row r="85" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="16"/>
@@ -12193,11 +11939,8 @@
       <c r="AH85" s="16"/>
       <c r="AI85" s="16"/>
       <c r="AJ85" s="16"/>
-      <c r="AK85" s="16"/>
-      <c r="AL85" s="16"/>
-      <c r="AM85" s="16"/>
-    </row>
-    <row r="86" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="16"/>
@@ -12229,11 +11972,8 @@
       <c r="AH86" s="16"/>
       <c r="AI86" s="16"/>
       <c r="AJ86" s="16"/>
-      <c r="AK86" s="16"/>
-      <c r="AL86" s="16"/>
-      <c r="AM86" s="16"/>
-    </row>
-    <row r="87" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D87" s="12"/>
       <c r="G87" s="9"/>
       <c r="H87" s="16"/>
@@ -12265,29 +12005,26 @@
       <c r="AH87" s="16"/>
       <c r="AI87" s="16"/>
       <c r="AJ87" s="16"/>
-      <c r="AK87" s="16"/>
-      <c r="AL87" s="16"/>
-      <c r="AM87" s="16"/>
-    </row>
-    <row r="88" spans="4:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D88" s="12"/>
       <c r="G88" s="9"/>
       <c r="I88" s="9"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D89" s="12"/>
       <c r="G89" s="9"/>
       <c r="I89" s="9"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D90" s="12"/>
       <c r="G90" s="9"/>
       <c r="I90" s="9"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D91" s="12"/>
       <c r="G91" s="9"/>
       <c r="I91" s="9"/>
@@ -12306,10 +12043,10 @@
   <dimension ref="A1:BG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19131,11 +18868,11 @@
   </sheetPr>
   <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25991,7 +25728,7 @@
   </sheetPr>
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
